--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_16_8.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_16_8.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1373673.476151577</v>
+        <v>-1376232.746719133</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673435</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -662,22 +662,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>64.42812611978835</v>
       </c>
       <c r="G2" t="n">
-        <v>266.3386772346157</v>
+        <v>410.9662774206981</v>
       </c>
       <c r="H2" t="n">
         <v>295.0640301736143</v>
       </c>
       <c r="I2" t="n">
-        <v>43.29451177962366</v>
+        <v>43.29451177962358</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,13 +710,13 @@
         <v>110.2029851842623</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>204.1129955007334</v>
       </c>
       <c r="U2" t="n">
         <v>250.9987361002815</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>89.82709352349997</v>
       </c>
       <c r="I3" t="n">
-        <v>9.512185486736399</v>
+        <v>9.512185486736371</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,22 +814,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>119.1940214223497</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0457926480648</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -862,25 +862,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>89.8307234716369</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>190.11729872947</v>
       </c>
       <c r="T4" t="n">
         <v>219.6343371202345</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2129282631967</v>
+        <v>113.6437373373196</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -896,7 +896,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -905,7 +905,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>297.9986308222602</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>10.92172565345345</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,16 +944,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>182.3878718016869</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1066,13 +1066,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,22 +1102,22 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>166.4311843675422</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>72.07192456522814</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1142,7 +1142,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>202.8213617619421</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>51.92236024882558</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1297,19 +1297,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>35.66783179869854</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>52.07852635745805</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1354,7 +1354,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1421,7 +1421,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576151</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1525,10 +1525,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>13.79222725775186</v>
       </c>
       <c r="C13" t="n">
-        <v>167.246821098631</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1540,7 +1540,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -1576,19 +1576,19 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>277.5227458350226</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1768,7 +1768,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>23.10998325717265</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1777,7 +1777,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1813,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>38.61213096654814</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2008,7 +2008,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -2020,7 +2020,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,16 +2047,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>236.5826017271498</v>
+        <v>52.57516893523015</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2081,7 +2081,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2245,19 +2245,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>99.97427419833785</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>70.04554881124329</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2369,7 +2369,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
@@ -2476,10 +2476,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>126.9263824507422</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2488,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>9.146142788179098</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2570,7 +2570,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2710,16 +2710,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>140.1230996349835</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2731,7 +2731,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>9.146142788179482</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2962,7 +2962,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703269</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -3001,7 +3001,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>160.1763464053461</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3187,25 +3187,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C34" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F34" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652524</v>
+        <v>56.98118882652607</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.090599218082</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U34" t="n">
         <v>261.8998268972044</v>
@@ -3250,7 +3250,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X34" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y34" t="n">
         <v>194.3000058600551</v>
@@ -3424,25 +3424,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652585</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.090599218082</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
@@ -3487,7 +3487,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y37" t="n">
         <v>194.3000058600551</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -4141,7 +4141,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652582</v>
+        <v>56.9811888265258</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1403.459146567247</v>
+        <v>1256.360848269457</v>
       </c>
       <c r="C2" t="n">
-        <v>1034.496629626835</v>
+        <v>887.3983313290457</v>
       </c>
       <c r="D2" t="n">
-        <v>676.2309310200849</v>
+        <v>887.3983313290457</v>
       </c>
       <c r="E2" t="n">
-        <v>676.2309310200849</v>
+        <v>887.3983313290455</v>
       </c>
       <c r="F2" t="n">
-        <v>676.2309310200851</v>
+        <v>822.3194160565321</v>
       </c>
       <c r="G2" t="n">
-        <v>407.2019641164329</v>
+        <v>407.201964116433</v>
       </c>
       <c r="H2" t="n">
-        <v>109.1574891935903</v>
+        <v>109.1574891935902</v>
       </c>
       <c r="I2" t="n">
-        <v>65.42565911316233</v>
+        <v>65.42565911316237</v>
       </c>
       <c r="J2" t="n">
-        <v>250.5613272725623</v>
+        <v>250.5613272725632</v>
       </c>
       <c r="K2" t="n">
-        <v>578.7702206183942</v>
+        <v>578.7702206183949</v>
       </c>
       <c r="L2" t="n">
-        <v>1022.844136887444</v>
+        <v>1022.844136887446</v>
       </c>
       <c r="M2" t="n">
-        <v>1548.631370064181</v>
+        <v>1548.631370064182</v>
       </c>
       <c r="N2" t="n">
-        <v>2087.540198746179</v>
+        <v>2087.540198746181</v>
       </c>
       <c r="O2" t="n">
-        <v>2583.081262767914</v>
+        <v>2583.081262767916</v>
       </c>
       <c r="P2" t="n">
-        <v>2971.513095303804</v>
+        <v>2971.513095303806</v>
       </c>
       <c r="Q2" t="n">
-        <v>3215.036478301</v>
+        <v>3215.036478301004</v>
       </c>
       <c r="R2" t="n">
-        <v>3271.282955658116</v>
+        <v>3271.282955658119</v>
       </c>
       <c r="S2" t="n">
-        <v>3159.966809007346</v>
+        <v>3159.966809007349</v>
       </c>
       <c r="T2" t="n">
-        <v>3159.966809007346</v>
+        <v>2953.792066077315</v>
       </c>
       <c r="U2" t="n">
-        <v>2906.432732138374</v>
+        <v>2700.257989208344</v>
       </c>
       <c r="V2" t="n">
-        <v>2906.432732138374</v>
+        <v>2369.195101864773</v>
       </c>
       <c r="W2" t="n">
-        <v>2553.66407686826</v>
+        <v>2016.426446594659</v>
       </c>
       <c r="X2" t="n">
-        <v>2180.19831860718</v>
+        <v>1642.960688333579</v>
       </c>
       <c r="Y2" t="n">
-        <v>1790.058986631368</v>
+        <v>1642.960688333579</v>
       </c>
     </row>
     <row r="3">
@@ -4401,28 +4401,28 @@
         <v>165.7683651841082</v>
       </c>
       <c r="H3" t="n">
-        <v>75.03392728158293</v>
+        <v>75.03392728158295</v>
       </c>
       <c r="I3" t="n">
-        <v>65.42565911316233</v>
+        <v>65.42565911316237</v>
       </c>
       <c r="J3" t="n">
-        <v>156.8733478056105</v>
+        <v>156.8733478056106</v>
       </c>
       <c r="K3" t="n">
-        <v>419.0008575360357</v>
+        <v>391.3268380794821</v>
       </c>
       <c r="L3" t="n">
-        <v>780.5750497221811</v>
+        <v>752.9010302656277</v>
       </c>
       <c r="M3" t="n">
-        <v>1221.871945822811</v>
+        <v>1194.197926366258</v>
       </c>
       <c r="N3" t="n">
-        <v>1689.257302559075</v>
+        <v>1661.583283102523</v>
       </c>
       <c r="O3" t="n">
-        <v>2094.603797632936</v>
+        <v>2066.929778176383</v>
       </c>
       <c r="P3" t="n">
         <v>2400.597029664691</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>510.3453396058016</v>
+        <v>1913.663355924397</v>
       </c>
       <c r="C4" t="n">
-        <v>510.3453396058016</v>
+        <v>1744.72717299649</v>
       </c>
       <c r="D4" t="n">
-        <v>360.2287001934658</v>
+        <v>1744.72717299649</v>
       </c>
       <c r="E4" t="n">
-        <v>212.3156066110727</v>
+        <v>1744.72717299649</v>
       </c>
       <c r="F4" t="n">
-        <v>65.42565911316233</v>
+        <v>1597.83722549858</v>
       </c>
       <c r="G4" t="n">
-        <v>65.42565911316233</v>
+        <v>1430.114202621747</v>
       </c>
       <c r="H4" t="n">
-        <v>65.42565911316233</v>
+        <v>1430.114202621747</v>
       </c>
       <c r="I4" t="n">
-        <v>65.42565911316233</v>
+        <v>1430.114202621747</v>
       </c>
       <c r="J4" t="n">
-        <v>109.1495242182615</v>
+        <v>1473.838067726846</v>
       </c>
       <c r="K4" t="n">
-        <v>310.838102740152</v>
+        <v>1675.526646248737</v>
       </c>
       <c r="L4" t="n">
-        <v>624.4564789039121</v>
+        <v>1989.145022412497</v>
       </c>
       <c r="M4" t="n">
-        <v>965.5122071220434</v>
+        <v>2330.200750630629</v>
       </c>
       <c r="N4" t="n">
-        <v>1303.893008842035</v>
+        <v>2668.581552350621</v>
       </c>
       <c r="O4" t="n">
-        <v>1600.426152235784</v>
+        <v>2965.114695744369</v>
       </c>
       <c r="P4" t="n">
-        <v>1830.640801863761</v>
+        <v>3195.329345372346</v>
       </c>
       <c r="Q4" t="n">
-        <v>1906.594412149533</v>
+        <v>3271.282955658119</v>
       </c>
       <c r="R4" t="n">
-        <v>1906.594412149533</v>
+        <v>3180.544851141314</v>
       </c>
       <c r="S4" t="n">
-        <v>1906.594412149533</v>
+        <v>2988.507175657001</v>
       </c>
       <c r="T4" t="n">
-        <v>1684.741546371519</v>
+        <v>2766.654309878986</v>
       </c>
       <c r="U4" t="n">
-        <v>1395.637578428896</v>
+        <v>2651.862656002905</v>
       </c>
       <c r="V4" t="n">
-        <v>1140.953090223009</v>
+        <v>2651.862656002905</v>
       </c>
       <c r="W4" t="n">
-        <v>851.5359201860481</v>
+        <v>2362.445485965944</v>
       </c>
       <c r="X4" t="n">
-        <v>851.5359201860481</v>
+        <v>2134.455935067927</v>
       </c>
       <c r="Y4" t="n">
-        <v>630.743341042518</v>
+        <v>1913.663355924397</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4541,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1491.569348694472</v>
+        <v>1274.580917301916</v>
       </c>
       <c r="C5" t="n">
-        <v>1122.606831754061</v>
+        <v>1274.580917301916</v>
       </c>
       <c r="D5" t="n">
-        <v>764.3411331473101</v>
+        <v>916.3152186951659</v>
       </c>
       <c r="E5" t="n">
-        <v>378.5528805490658</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F5" t="n">
-        <v>77.54416254678287</v>
+        <v>119.5410613073141</v>
       </c>
       <c r="G5" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
@@ -4589,28 +4589,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U5" t="n">
-        <v>3325.605821609171</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V5" t="n">
-        <v>2994.5429342656</v>
+        <v>2777.554502873044</v>
       </c>
       <c r="W5" t="n">
-        <v>2641.774278995485</v>
+        <v>2424.78584760293</v>
       </c>
       <c r="X5" t="n">
-        <v>2268.308520734406</v>
+        <v>2051.32008934185</v>
       </c>
       <c r="Y5" t="n">
-        <v>1878.169188758594</v>
+        <v>1661.180757366038</v>
       </c>
     </row>
     <row r="6">
@@ -4635,22 +4635,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4662,10 +4662,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125856</v>
@@ -4699,40 +4699,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>994.2880032601528</v>
+        <v>777.6936570343842</v>
       </c>
       <c r="C7" t="n">
-        <v>825.3518203322459</v>
+        <v>608.7574741064773</v>
       </c>
       <c r="D7" t="n">
-        <v>675.2351809199101</v>
+        <v>458.6408346941415</v>
       </c>
       <c r="E7" t="n">
-        <v>527.322087337517</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="F7" t="n">
-        <v>380.4321398396066</v>
+        <v>163.837793613838</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143256</v>
+        <v>163.837793613838</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J7" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4744,31 +4744,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088492</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T7" t="n">
-        <v>1759.182240646531</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="U7" t="n">
-        <v>1759.182240646531</v>
+        <v>1662.808740112058</v>
       </c>
       <c r="V7" t="n">
-        <v>1504.497752440644</v>
+        <v>1408.124251906171</v>
       </c>
       <c r="W7" t="n">
-        <v>1215.080582403683</v>
+        <v>1408.124251906171</v>
       </c>
       <c r="X7" t="n">
-        <v>1215.080582403683</v>
+        <v>1180.134701008154</v>
       </c>
       <c r="Y7" t="n">
-        <v>994.2880032601528</v>
+        <v>959.3421218646239</v>
       </c>
     </row>
     <row r="8">
@@ -4778,16 +4778,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1753.263343671913</v>
+        <v>1959.379186075721</v>
       </c>
       <c r="C8" t="n">
-        <v>1384.300826731502</v>
+        <v>1590.416669135309</v>
       </c>
       <c r="D8" t="n">
-        <v>1026.035128124751</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E8" t="n">
-        <v>1026.035128124751</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
         <v>821.1650657389509</v>
@@ -4799,13 +4799,13 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
         <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810551</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4814,40 +4814,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3273.158993075003</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993393</v>
+        <v>3067.181245459225</v>
       </c>
       <c r="U8" t="n">
-        <v>2866.097597267229</v>
+        <v>3067.181245459225</v>
       </c>
       <c r="V8" t="n">
-        <v>2866.097597267229</v>
+        <v>2736.118358115654</v>
       </c>
       <c r="W8" t="n">
-        <v>2513.328941997115</v>
+        <v>2736.118358115654</v>
       </c>
       <c r="X8" t="n">
-        <v>2139.863183736035</v>
+        <v>2736.118358115654</v>
       </c>
       <c r="Y8" t="n">
-        <v>2139.863183736035</v>
+        <v>2345.979026139843</v>
       </c>
     </row>
     <row r="9">
@@ -4872,31 +4872,31 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
         <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>752.7622949738579</v>
+        <v>980.7518458718754</v>
       </c>
       <c r="C10" t="n">
-        <v>583.826112045951</v>
+        <v>811.8156629439685</v>
       </c>
       <c r="D10" t="n">
-        <v>433.7094726336153</v>
+        <v>661.6990235316327</v>
       </c>
       <c r="E10" t="n">
-        <v>433.7094726336153</v>
+        <v>513.7859299492396</v>
       </c>
       <c r="F10" t="n">
-        <v>286.8195251357049</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G10" t="n">
-        <v>119.1166885104239</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -5002,10 +5002,10 @@
         <v>1383.192889845645</v>
       </c>
       <c r="X10" t="n">
-        <v>1155.203338947628</v>
+        <v>1383.192889845645</v>
       </c>
       <c r="Y10" t="n">
-        <v>934.4107598040977</v>
+        <v>1162.400310702115</v>
       </c>
     </row>
     <row r="11">
@@ -5033,40 +5033,40 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474784</v>
@@ -5078,10 +5078,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5112,10 +5112,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
@@ -5130,16 +5130,16 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263529</v>
+        <v>931.4710609784064</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356195</v>
+        <v>762.5348780504995</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>612.4182386381638</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>464.5051450557706</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797744</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5218,31 +5218,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235166</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>2264.108249235166</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U13" t="n">
-        <v>2264.108249235166</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V13" t="n">
-        <v>2009.423761029279</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W13" t="n">
-        <v>1729.097755135317</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237299</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093769</v>
+        <v>945.4026036630042</v>
       </c>
     </row>
     <row r="14">
@@ -5273,25 +5273,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5364,16 +5364,16 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>580.8993044876697</v>
+        <v>724.7519863413023</v>
       </c>
       <c r="C16" t="n">
-        <v>411.9631215597628</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="D16" t="n">
-        <v>388.6197041282754</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E16" t="n">
-        <v>240.7066105458822</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F16" t="n">
-        <v>93.81666304797187</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
         <v>93.81666304797187</v>
@@ -5434,13 +5434,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.741944003834</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5461,25 +5461,25 @@
         <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235166</v>
+        <v>2407.960931088798</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258107</v>
+        <v>2188.359466111739</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602305</v>
+        <v>1899.284239455937</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396418</v>
+        <v>1644.59975125005</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359457</v>
+        <v>1355.182581213089</v>
       </c>
       <c r="X16" t="n">
-        <v>983.3403484614396</v>
+        <v>1127.193030315072</v>
       </c>
       <c r="Y16" t="n">
-        <v>762.5477693179095</v>
+        <v>906.400451171542</v>
       </c>
     </row>
     <row r="17">
@@ -5504,19 +5504,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192457</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111696</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075789</v>
+        <v>852.852361107579</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332385</v>
@@ -5531,7 +5531,7 @@
         <v>3640.422291068008</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5589,25 +5589,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1074.481071167373</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P18" t="n">
         <v>2319.799627685893</v>
@@ -5647,34 +5647,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>783.5579673960131</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C19" t="n">
-        <v>614.6217844681063</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D19" t="n">
-        <v>464.5051450557705</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E19" t="n">
         <v>464.5051450557705</v>
       </c>
       <c r="F19" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782954</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L19" t="n">
         <v>826.1405381797742</v>
@@ -5689,34 +5689,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
         <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1958.090220510648</v>
+        <v>1924.354849262801</v>
       </c>
       <c r="V19" t="n">
-        <v>1703.405732304761</v>
+        <v>1669.670361056914</v>
       </c>
       <c r="W19" t="n">
-        <v>1413.9885622678</v>
+        <v>1380.253191019954</v>
       </c>
       <c r="X19" t="n">
-        <v>1185.999011369783</v>
+        <v>1152.263640121936</v>
       </c>
       <c r="Y19" t="n">
-        <v>965.2064322262528</v>
+        <v>931.4710609784063</v>
       </c>
     </row>
     <row r="20">
@@ -5744,16 +5744,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5762,28 +5762,28 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
         <v>3820.749612123003</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,28 +5823,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>119.290296770379</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951538</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P21" t="n">
         <v>2319.799627685893</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400709</v>
+        <v>951.7772127656158</v>
       </c>
       <c r="C22" t="n">
-        <v>344.917417812164</v>
+        <v>782.841029837709</v>
       </c>
       <c r="D22" t="n">
-        <v>194.8007783998283</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E22" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F22" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2126.309465880251</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>2126.309465880251</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1871.624977674364</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1582.207807637403</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138409</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703106</v>
+        <v>1133.425677595855</v>
       </c>
     </row>
     <row r="23">
@@ -5984,16 +5984,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
         <v>2206.558663014779</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6066,28 +6066,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>691.1951506745238</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1318.79311422913</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O24" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188007</v>
+        <v>513.8536007400713</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908938</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G25" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6163,34 +6163,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q25" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S25" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533435</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925705</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490404</v>
+        <v>695.5020655703111</v>
       </c>
     </row>
     <row r="26">
@@ -6200,43 +6200,43 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6245,31 +6245,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6297,10 +6297,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
         <v>243.4633055756266</v>
@@ -6315,13 +6315,13 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188002</v>
+        <v>945.4026036630042</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908933</v>
+        <v>776.4664207350974</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908933</v>
+        <v>626.3497813227616</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908933</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908934</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L28" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2437.724555511392</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2254.869721166296</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T28" t="n">
-        <v>2035.268256189237</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533435</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327548</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290587</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925701</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490399</v>
+        <v>945.4026036630042</v>
       </c>
     </row>
     <row r="29">
@@ -6458,10 +6458,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
@@ -6470,10 +6470,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
         <v>3640.422291068009</v>
@@ -6540,28 +6540,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>691.1951506745238</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1318.79311422913</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188007</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="G31" t="n">
         <v>235.5284942057738</v>
@@ -6622,7 +6622,7 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
         <v>826.1405381797742</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
         <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533435</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925705</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490404</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
     <row r="32">
@@ -6689,13 +6689,13 @@
         <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J32" t="n">
         <v>378.192580311172</v>
@@ -6774,25 +6774,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6832,43 +6832,43 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319319</v>
+        <v>926.9575315319327</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656811</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150016</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942648</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580107</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345468</v>
+        <v>268.5553036345479</v>
       </c>
       <c r="H34" t="n">
-        <v>151.3734194384014</v>
+        <v>151.3734194384023</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954154</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380726</v>
+        <v>483.8255460380733</v>
       </c>
       <c r="L34" t="n">
-        <v>898.265941231132</v>
+        <v>898.2659412311327</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
       </c>
       <c r="N34" t="n">
-        <v>1785.769117656413</v>
+        <v>1785.769117656414</v>
       </c>
       <c r="O34" t="n">
         <v>2179.340199382518</v>
@@ -6883,25 +6883,25 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T34" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V34" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y34" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6938,7 +6938,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6950,7 +6950,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6968,19 +6968,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7072,34 +7072,34 @@
         <v>926.9575315319323</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E37" t="n">
         <v>533.5814564942652</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345473</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H37" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954152</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380731</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7117,16 +7117,16 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S37" t="n">
         <v>2438.456847547834</v>
       </c>
       <c r="T37" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V37" t="n">
         <v>1748.685508594055</v>
@@ -7160,16 +7160,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
         <v>378.192580311172</v>
@@ -7306,43 +7306,43 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.957531531932</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656814</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150019</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E40" t="n">
-        <v>533.581456494265</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580109</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G40" t="n">
-        <v>268.555303634547</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K40" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
       </c>
       <c r="N40" t="n">
-        <v>1785.769117656413</v>
+        <v>1785.769117656414</v>
       </c>
       <c r="O40" t="n">
         <v>2179.340199382518</v>
@@ -7351,31 +7351,31 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717214</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S40" t="n">
         <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="41">
@@ -7397,16 +7397,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111715</v>
@@ -7424,34 +7424,34 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1318.79311422913</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,7 +7543,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C43" t="n">
         <v>782.5512955656818</v>
@@ -7567,13 +7567,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954149</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L43" t="n">
-        <v>898.265941231132</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7591,10 +7591,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T43" t="n">
         <v>2243.385329532432</v>
@@ -7634,22 +7634,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7661,7 +7661,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7780,34 +7780,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L46" t="n">
         <v>898.2659412311323</v>
@@ -7837,16 +7837,16 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W46" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y46" t="n">
         <v>1084.076049400516</v>
@@ -8058,7 +8058,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>27.95355500662009</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8073,13 +8073,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>27.95355500661873</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>1.622913276780309</v>
+        <v>1.622913276780253</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8316,7 +8316,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -22550,16 +22550,16 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>342.4479196219231</v>
       </c>
       <c r="G2" t="n">
-        <v>144.6276001860824</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22598,13 +22598,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>204.1129955007334</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -22613,7 +22613,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22702,28 +22702,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>60.6379587595876</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0457926480648</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>144.9326943004822</v>
       </c>
       <c r="I4" t="n">
-        <v>96.95340549104684</v>
+        <v>96.95340549104682</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22750,25 +22750,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>89.83072347163694</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>190.1172987294701</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>172.5691909258771</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>166.0397529241854</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23428,7 +23428,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23461,22 +23461,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101223</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>9.000252501568411</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23656,7 +23656,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>125.5054897610397</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23665,13 +23665,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>142.4141550350965</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23896,7 +23896,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23941,10 +23941,10 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>49.60187266209434</v>
+        <v>233.609305454014</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24133,19 +24133,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>46.45968844823132</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24178,10 +24178,10 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>147.359901516045</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24364,10 +24364,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>40.32043864788563</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24376,7 +24376,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>57.22910392194259</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24598,16 +24598,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>6.310863011585639</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24619,7 +24619,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>57.2291039219422</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24850,7 +24850,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>57.22910392194197</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24889,7 +24889,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>57.22910392194214</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>6.110667527536862e-13</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1059795.726558719</v>
+        <v>1059795.72655872</v>
       </c>
     </row>
     <row r="3">
@@ -26311,16 +26311,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>135401.7127154573</v>
+        <v>135401.7127154574</v>
       </c>
       <c r="C2" t="n">
         <v>164208.3539728567</v>
       </c>
       <c r="D2" t="n">
-        <v>164208.3539728566</v>
+        <v>164208.3539728567</v>
       </c>
       <c r="E2" t="n">
-        <v>161429.3199380012</v>
+        <v>161429.3199380013</v>
       </c>
       <c r="F2" t="n">
         <v>161429.3199380012</v>
@@ -26332,10 +26332,10 @@
         <v>161429.3199380013</v>
       </c>
       <c r="I2" t="n">
+        <v>161429.3199380012</v>
+      </c>
+      <c r="J2" t="n">
         <v>161429.3199380013</v>
-      </c>
-      <c r="J2" t="n">
-        <v>161429.3199380012</v>
       </c>
       <c r="K2" t="n">
         <v>161429.3199380012</v>
@@ -26347,10 +26347,10 @@
         <v>164208.3539728567</v>
       </c>
       <c r="N2" t="n">
-        <v>164208.3539728568</v>
+        <v>164208.3539728567</v>
       </c>
       <c r="O2" t="n">
-        <v>164208.3539728568</v>
+        <v>164208.3539728567</v>
       </c>
       <c r="P2" t="n">
         <v>164208.3539728567</v>
@@ -26366,13 +26366,13 @@
         <v>1313514.533081207</v>
       </c>
       <c r="C3" t="n">
-        <v>14479.05232074587</v>
+        <v>14479.05232074541</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>213977.889412553</v>
+        <v>213977.8894125532</v>
       </c>
       <c r="K3" t="n">
-        <v>3495.241841022814</v>
+        <v>3495.241841022551</v>
       </c>
       <c r="L3" t="n">
-        <v>19427.71799363175</v>
+        <v>19427.71799363178</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551187</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,16 +26415,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>11046.00124731558</v>
+        <v>11046.00124731555</v>
       </c>
       <c r="C4" t="n">
-        <v>89744.12305813251</v>
+        <v>89744.12305813252</v>
       </c>
       <c r="D4" t="n">
-        <v>89744.12305813249</v>
+        <v>89744.12305813252</v>
       </c>
       <c r="E4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.0882867812</v>
       </c>
       <c r="F4" t="n">
         <v>10557.08828678121</v>
@@ -26433,31 +26433,31 @@
         <v>10557.08828678121</v>
       </c>
       <c r="H4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.08828678119</v>
       </c>
       <c r="I4" t="n">
-        <v>10557.08828678119</v>
+        <v>10557.08828678122</v>
       </c>
       <c r="J4" t="n">
-        <v>10557.08828678127</v>
+        <v>10557.08828678122</v>
       </c>
       <c r="K4" t="n">
         <v>10557.08828678121</v>
       </c>
       <c r="L4" t="n">
-        <v>18547.94754987466</v>
+        <v>18547.94754987468</v>
       </c>
       <c r="M4" t="n">
-        <v>18547.94754987466</v>
+        <v>18547.94754987468</v>
       </c>
       <c r="N4" t="n">
         <v>18547.94754987468</v>
       </c>
       <c r="O4" t="n">
+        <v>18547.94754987465</v>
+      </c>
+      <c r="P4" t="n">
         <v>18547.94754987468</v>
-      </c>
-      <c r="P4" t="n">
-        <v>18547.94754987467</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1296025.461516177</v>
+        <v>-1296385.544531895</v>
       </c>
       <c r="C6" t="n">
-        <v>-47948.761967415</v>
+        <v>-47948.76196741451</v>
       </c>
       <c r="D6" t="n">
-        <v>-33469.70964666916</v>
+        <v>-33469.70964666914</v>
       </c>
       <c r="E6" t="n">
-        <v>-275662.7599800422</v>
+        <v>-275697.497905478</v>
       </c>
       <c r="F6" t="n">
-        <v>49749.70182731286</v>
+        <v>49714.9639018772</v>
       </c>
       <c r="G6" t="n">
-        <v>49749.70182731283</v>
+        <v>49714.96390187714</v>
       </c>
       <c r="H6" t="n">
-        <v>49749.70182731292</v>
+        <v>49714.96390187724</v>
       </c>
       <c r="I6" t="n">
-        <v>49749.70182731295</v>
+        <v>49714.96390187717</v>
       </c>
       <c r="J6" t="n">
-        <v>-164228.1875852401</v>
+        <v>-164262.925510676</v>
       </c>
       <c r="K6" t="n">
-        <v>46254.45998629004</v>
+        <v>46219.72206085463</v>
       </c>
       <c r="L6" t="n">
-        <v>23068.57257543498</v>
+        <v>23068.57257543494</v>
       </c>
       <c r="M6" t="n">
-        <v>-42558.7373664451</v>
+        <v>-42558.7373664452</v>
       </c>
       <c r="N6" t="n">
-        <v>42496.29056906671</v>
+        <v>42496.29056906665</v>
       </c>
       <c r="O6" t="n">
-        <v>42496.29056906671</v>
+        <v>42496.29056906664</v>
       </c>
       <c r="P6" t="n">
-        <v>42496.29056906668</v>
+        <v>42496.29056906665</v>
       </c>
     </row>
   </sheetData>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O2" t="n">
         <v>24.28464749203973</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="3">
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1078.694448491202</v>
+        <v>1078.694448491203</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>817.820738914529</v>
+        <v>817.8207389145297</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26805,7 +26805,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26826,7 +26826,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26957,10 +26957,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1078.694448491202</v>
+        <v>1078.694448491203</v>
       </c>
       <c r="C3" t="n">
-        <v>11.08225210209571</v>
+        <v>11.08225210209548</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>817.820738914529</v>
+        <v>817.8207389145297</v>
       </c>
       <c r="C4" t="n">
-        <v>13.58071648776365</v>
+        <v>13.58071648776286</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>817.8207389145288</v>
+        <v>817.8207389145297</v>
       </c>
       <c r="K4" t="n">
-        <v>13.58071648776388</v>
+        <v>13.58071648776286</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>817.820738914529</v>
+        <v>817.8207389145297</v>
       </c>
       <c r="K4" t="n">
-        <v>13.58071648776365</v>
+        <v>13.58071648776286</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27616,7 +27616,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27625,7 +27625,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>108.8774149194513</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27634,7 +27634,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,16 +27664,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>145.364386668448</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27786,13 +27786,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,25 +27819,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>53.11776490862704</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>214.1399136403847</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27862,7 +27862,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>204.0546839797694</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>57.26540153935026</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28017,19 +28017,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>109.7532162242327</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>92.67648855686274</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28074,7 +28074,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28141,7 +28141,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>9.848122317634988e-13</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -28248,7 +28248,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>-9.831888791845542e-13</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -29035,7 +29035,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -29272,7 +29272,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -29290,7 +29290,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="41">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
   </sheetData>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.336460094436991</v>
+        <v>4.336460094436993</v>
       </c>
       <c r="H2" t="n">
-        <v>44.41077194215285</v>
+        <v>44.41077194215286</v>
       </c>
       <c r="I2" t="n">
-        <v>167.1813777907822</v>
+        <v>167.1813777907823</v>
       </c>
       <c r="J2" t="n">
-        <v>368.0516299402219</v>
+        <v>368.0516299402221</v>
       </c>
       <c r="K2" t="n">
-        <v>551.6139857377399</v>
+        <v>551.6139857377401</v>
       </c>
       <c r="L2" t="n">
-        <v>684.3259263528661</v>
+        <v>684.3259263528663</v>
       </c>
       <c r="M2" t="n">
-        <v>761.4444485573099</v>
+        <v>761.4444485573102</v>
       </c>
       <c r="N2" t="n">
-        <v>773.7654158006291</v>
+        <v>773.7654158006294</v>
       </c>
       <c r="O2" t="n">
-        <v>730.6447407365712</v>
+        <v>730.6447407365715</v>
       </c>
       <c r="P2" t="n">
-        <v>623.5883821551579</v>
+        <v>623.5883821551581</v>
       </c>
       <c r="Q2" t="n">
-        <v>468.2889050231329</v>
+        <v>468.2889050231332</v>
       </c>
       <c r="R2" t="n">
-        <v>272.4001614071779</v>
+        <v>272.400161407178</v>
       </c>
       <c r="S2" t="n">
-        <v>98.81708440198304</v>
+        <v>98.81708440198308</v>
       </c>
       <c r="T2" t="n">
-        <v>18.98285406339794</v>
+        <v>18.98285406339795</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3469168075549592</v>
+        <v>0.3469168075549593</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.320210700528247</v>
+        <v>2.320210700528248</v>
       </c>
       <c r="H3" t="n">
-        <v>22.40835071299649</v>
+        <v>22.4083507129965</v>
       </c>
       <c r="I3" t="n">
-        <v>79.88444736467868</v>
+        <v>79.88444736467871</v>
       </c>
       <c r="J3" t="n">
-        <v>219.2090293863113</v>
+        <v>219.2090293863114</v>
       </c>
       <c r="K3" t="n">
-        <v>374.6631463217038</v>
+        <v>374.6631463217039</v>
       </c>
       <c r="L3" t="n">
-        <v>503.7808365335564</v>
+        <v>503.7808365335566</v>
       </c>
       <c r="M3" t="n">
-        <v>587.8884744277052</v>
+        <v>587.8884744277054</v>
       </c>
       <c r="N3" t="n">
-        <v>603.4481330290548</v>
+        <v>603.448133029055</v>
       </c>
       <c r="O3" t="n">
-        <v>552.0371485594552</v>
+        <v>552.0371485594554</v>
       </c>
       <c r="P3" t="n">
-        <v>443.058480173679</v>
+        <v>443.0584801736792</v>
       </c>
       <c r="Q3" t="n">
-        <v>296.1728606498864</v>
+        <v>296.1728606498865</v>
       </c>
       <c r="R3" t="n">
-        <v>144.0565906871836</v>
+        <v>144.0565906871837</v>
       </c>
       <c r="S3" t="n">
-        <v>43.09689612603999</v>
+        <v>43.09689612604001</v>
       </c>
       <c r="T3" t="n">
-        <v>9.352077341164289</v>
+        <v>9.352077341164293</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1526454408242268</v>
+        <v>0.1526454408242269</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.945186710393971</v>
+        <v>1.945186710393972</v>
       </c>
       <c r="H4" t="n">
-        <v>17.29447820695732</v>
+        <v>17.29447820695733</v>
       </c>
       <c r="I4" t="n">
-        <v>58.49706943621145</v>
+        <v>58.49706943621147</v>
       </c>
       <c r="J4" t="n">
         <v>137.5247004248538</v>
       </c>
       <c r="K4" t="n">
-        <v>225.9953287166813</v>
+        <v>225.9953287166814</v>
       </c>
       <c r="L4" t="n">
-        <v>289.1962132889365</v>
+        <v>289.1962132889366</v>
       </c>
       <c r="M4" t="n">
-        <v>304.9168586120295</v>
+        <v>304.9168586120296</v>
       </c>
       <c r="N4" t="n">
-        <v>297.6666172369249</v>
+        <v>297.666617236925</v>
       </c>
       <c r="O4" t="n">
-        <v>274.9432997564134</v>
+        <v>274.9432997564135</v>
       </c>
       <c r="P4" t="n">
-        <v>235.2614908643762</v>
+        <v>235.2614908643763</v>
       </c>
       <c r="Q4" t="n">
         <v>162.8828617221716</v>
       </c>
       <c r="R4" t="n">
-        <v>87.46266790553254</v>
+        <v>87.46266790553258</v>
       </c>
       <c r="S4" t="n">
-        <v>33.8992993075022</v>
+        <v>33.89929930750221</v>
       </c>
       <c r="T4" t="n">
-        <v>8.311252308046965</v>
+        <v>8.311252308046969</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1061010932942167</v>
+        <v>0.1061010932942168</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,43 +31276,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31361,40 +31361,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,13 +31434,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31449,16 +31449,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31467,16 +31467,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31850,7 +31850,7 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>322.6999460717714</v>
+        <v>359.7096985496635</v>
       </c>
       <c r="O12" t="n">
         <v>142.5962444444444</v>
@@ -31862,7 +31862,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,10 +32066,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32078,37 +32078,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>416.4300581532619</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,10 +32303,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32315,37 +32315,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>414.644818552487</v>
       </c>
       <c r="N18" t="n">
-        <v>403.8524967138027</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>369.1789913099994</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32786,22 +32786,22 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>322.6999460717714</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
         <v>561.8765786214698</v>
@@ -32810,7 +32810,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33035,16 +33035,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>359.7096985496635</v>
       </c>
       <c r="O27" t="n">
-        <v>400.5469039565762</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33205,7 +33205,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
         <v>125.31755462929</v>
@@ -33260,13 +33260,13 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33275,16 +33275,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33415,10 +33415,10 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
         <v>699.5441750817575</v>
@@ -33494,16 +33494,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33512,10 +33512,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33658,7 +33658,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L35" t="n">
         <v>867.846407116256</v>
@@ -33679,7 +33679,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -33892,7 +33892,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
         <v>699.5441750817575</v>
@@ -34138,7 +34138,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175679</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
         <v>981.2715114159425</v>
@@ -34147,7 +34147,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236522</v>
       </c>
       <c r="Q41" t="n">
         <v>593.8732233669223</v>
@@ -34205,16 +34205,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34223,16 +34223,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34390,7 +34390,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>187.0057254135356</v>
+        <v>187.0057254135358</v>
       </c>
       <c r="K2" t="n">
-        <v>331.5241346927593</v>
+        <v>331.5241346927596</v>
       </c>
       <c r="L2" t="n">
-        <v>448.5595113828788</v>
+        <v>448.5595113828791</v>
       </c>
       <c r="M2" t="n">
-        <v>531.0982153300372</v>
+        <v>531.0982153300375</v>
       </c>
       <c r="N2" t="n">
-        <v>544.3523522040382</v>
+        <v>544.3523522040384</v>
       </c>
       <c r="O2" t="n">
-        <v>500.5465293148844</v>
+        <v>500.5465293148848</v>
       </c>
       <c r="P2" t="n">
-        <v>392.3553863998883</v>
+        <v>392.3553863998886</v>
       </c>
       <c r="Q2" t="n">
-        <v>245.9832151486835</v>
+        <v>245.9832151486837</v>
       </c>
       <c r="R2" t="n">
-        <v>56.81462359304578</v>
+        <v>56.81462359304589</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>92.37140271964458</v>
+        <v>92.37140271964466</v>
       </c>
       <c r="K3" t="n">
-        <v>264.7752623539649</v>
+        <v>236.821707347345</v>
       </c>
       <c r="L3" t="n">
-        <v>365.2264567536822</v>
+        <v>365.2264567536824</v>
       </c>
       <c r="M3" t="n">
-        <v>445.7544405056869</v>
+        <v>445.7544405056871</v>
       </c>
       <c r="N3" t="n">
-        <v>472.1064209457215</v>
+        <v>472.1064209457218</v>
       </c>
       <c r="O3" t="n">
-        <v>409.4409041150108</v>
+        <v>409.440904115011</v>
       </c>
       <c r="P3" t="n">
-        <v>309.0840727593488</v>
+        <v>337.0376277659677</v>
       </c>
       <c r="Q3" t="n">
-        <v>156.1910865638649</v>
+        <v>156.191086563865</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>44.16552030818099</v>
+        <v>44.16552030818104</v>
       </c>
       <c r="K4" t="n">
-        <v>203.7258368907985</v>
+        <v>203.7258368907986</v>
       </c>
       <c r="L4" t="n">
-        <v>316.7862385492526</v>
+        <v>316.7862385492527</v>
       </c>
       <c r="M4" t="n">
-        <v>344.5007355738701</v>
+        <v>344.5007355738702</v>
       </c>
       <c r="N4" t="n">
-        <v>341.7987896161535</v>
+        <v>341.7987896161536</v>
       </c>
       <c r="O4" t="n">
-        <v>299.5284276704531</v>
+        <v>299.5284276704532</v>
       </c>
       <c r="P4" t="n">
-        <v>232.5400501292697</v>
+        <v>232.5400501292698</v>
       </c>
       <c r="Q4" t="n">
-        <v>76.72081847047717</v>
+        <v>76.72081847047723</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,10 +35091,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35106,13 +35106,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35498,7 +35498,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>191.358233988438</v>
+        <v>228.3679864663302</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -35510,7 +35510,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35729,22 +35729,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>274.2960242312436</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>257.9506595121318</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,7 +35957,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35966,22 +35966,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>272.5107846304687</v>
       </c>
       <c r="N18" t="n">
-        <v>272.5107846304694</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,31 +36194,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>25.73094315394657</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>226.582746865555</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36434,22 +36434,22 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>191.358233988438</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>427.9021712071395</v>
@@ -36458,7 +36458,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36683,16 +36683,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>228.3679864663302</v>
       </c>
       <c r="O27" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36853,7 +36853,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,13 +36908,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36923,16 +36923,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37063,10 +37063,10 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
         <v>479.454324036777</v>
@@ -37142,16 +37142,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37160,10 +37160,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>105.331130754993</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K34" t="n">
         <v>288.6172359016746</v>
@@ -37245,7 +37245,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,7 +37306,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L35" t="n">
         <v>632.0799921462688</v>
@@ -37327,7 +37327,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>105.331130754993</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
         <v>288.6172359016746</v>
@@ -37482,7 +37482,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,7 +37540,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
         <v>479.454324036777</v>
@@ -37786,7 +37786,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
@@ -37795,7 +37795,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683826</v>
       </c>
       <c r="Q41" t="n">
         <v>371.5675334924728</v>
@@ -37853,16 +37853,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37871,16 +37871,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38038,7 +38038,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38193,7 +38193,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
